--- a/biology/Zoologie/Forstertyna_marplesi/Forstertyna_marplesi.xlsx
+++ b/biology/Zoologie/Forstertyna_marplesi/Forstertyna_marplesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forstertyna marplesi, unique représentant du genre Forstertyna, est une espèce d'araignées aranéomorphes de la famille des Megadictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forstertyna marplesi, unique représentant du genre Forstertyna, est une espèce d'araignées aranéomorphes de la famille des Megadictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande[1]. Elle se rencontre sur l'île du Sud dans les régions de Southland et d'Otago[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande. Elle se rencontre sur l'île du Sud dans les régions de Southland et d'Otago.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,97 mm de long sur 2,72 mm et l'abdomen 5,54 mm de long sur 4,59 mm[3].
-La femelle décrite par Harvey en 1995 mesure 7,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,97 mm de long sur 2,72 mm et l'abdomen 5,54 mm de long sur 4,59 mm.
+La femelle décrite par Harvey en 1995 mesure 7,9 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Megadictyna marplesi par Forster en 1970. Elle est placée dans le genre Forstertyna par Harvey en 1995[2]. Le mâle décrit par Forster en 1970 appartient à Megadictyna thilenii[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Megadictyna marplesi par Forster en 1970. Elle est placée dans le genre Forstertyna par Harvey en 1995. Le mâle décrit par Forster en 1970 appartient à Megadictyna thilenii.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Brian John Marples[3].
-Ce genre est nommé en l'honneur de Raymond Robert Forster[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Brian John Marples.
+Ce genre est nommé en l'honneur de Raymond Robert Forster.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Forster, 1970 : « The spiders of New Zealand. Part III. » Otago Museum Bulletin, vol. 3, p. 1-184.
 Harvey, 1995 : « The systematics of the spider family Nicodamidae (Araneae: Amaurobioidea). » Invertebrate Taxonomy, vol. 9, no 2, p. 279-386.</t>
